--- a/BackTest/2019-10-27 BackTest MIX.xlsx
+++ b/BackTest/2019-10-27 BackTest MIX.xlsx
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -13751,14 +13751,20 @@
         <v>8.913333333333336</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>8.91</v>
+      </c>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13786,14 +13792,20 @@
         <v>8.920000000000002</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>8.91</v>
+      </c>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13821,14 +13833,20 @@
         <v>8.936666666666669</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>8.94</v>
+      </c>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +13881,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -13898,7 +13920,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -13933,7 +13959,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -13968,7 +13998,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14003,7 +14037,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14038,7 +14076,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14073,7 +14115,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14108,7 +14154,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14143,7 +14193,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +14232,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14213,7 +14271,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +14310,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14283,7 +14349,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14318,7 +14388,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14353,7 +14427,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14388,7 +14466,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14423,7 +14505,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14458,7 +14544,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14493,7 +14583,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14528,7 +14622,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +14661,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14598,7 +14700,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14633,7 +14739,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +14778,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14703,7 +14817,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14738,7 +14856,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +14895,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +14934,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +14973,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +15012,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14913,7 +15051,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +15090,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +15129,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15168,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15053,7 +15207,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15088,7 +15246,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +15285,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15158,7 +15324,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +15363,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +15402,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15441,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +15480,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +15519,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15368,7 +15558,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15403,7 +15597,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15438,7 +15636,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15473,7 +15675,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15508,7 +15714,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15536,18 +15746,16 @@
         <v>8.733333333333336</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>8.710000000000001</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M433" t="n">
@@ -15577,14 +15785,12 @@
         <v>8.726666666666668</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>8.720000000000001</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -15618,14 +15824,12 @@
         <v>8.720000000000001</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>8.720000000000001</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
@@ -15659,14 +15863,12 @@
         <v>8.720000000000001</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>8.720000000000001</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
@@ -15700,14 +15902,12 @@
         <v>8.720000000000001</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>8.720000000000001</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
@@ -15747,7 +15947,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="n">
-        <v>8.710000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
@@ -15788,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="n">
-        <v>8.720000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
@@ -15829,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="n">
-        <v>8.630000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
@@ -15911,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="n">
-        <v>8.69</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
@@ -15993,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="n">
-        <v>8.68</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
@@ -16075,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="n">
-        <v>8.720000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
@@ -16116,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="J447" t="n">
-        <v>8.699999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
@@ -16192,14 +16392,12 @@
         <v>8.763333333333334</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>8.779999999999999</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
@@ -16233,14 +16431,12 @@
         <v>8.773333333333333</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>8.779999999999999</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
@@ -16274,14 +16470,12 @@
         <v>8.780000000000001</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>8.75</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
@@ -16315,14 +16509,12 @@
         <v>8.806666666666668</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>8.789999999999999</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
@@ -16356,14 +16548,12 @@
         <v>8.816666666666668</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>8.84</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
@@ -16397,14 +16587,12 @@
         <v>8.830000000000002</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
@@ -16438,14 +16626,12 @@
         <v>8.780000000000001</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>8.83</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
@@ -16479,14 +16665,12 @@
         <v>8.746666666666668</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>8.69</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
@@ -16520,14 +16704,12 @@
         <v>8.736666666666668</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>8.699999999999999</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
@@ -16561,14 +16743,12 @@
         <v>8.773333333333335</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
@@ -16602,14 +16782,12 @@
         <v>8.813333333333334</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>8.82</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
@@ -16643,14 +16821,12 @@
         <v>8.816666666666668</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>8.76</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
@@ -16684,14 +16860,12 @@
         <v>8.82</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>8.82</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
@@ -16725,14 +16899,12 @@
         <v>8.816666666666668</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>8.81</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
@@ -16766,14 +16938,12 @@
         <v>8.81</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>8.779999999999999</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
@@ -16807,14 +16977,12 @@
         <v>8.806666666666667</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>8.81</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
@@ -16848,14 +17016,12 @@
         <v>8.806666666666667</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>8.81</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
@@ -16889,14 +17055,12 @@
         <v>8.81</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>8.81</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
@@ -16930,14 +17094,12 @@
         <v>8.813333333333333</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>8.81</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
@@ -16971,14 +17133,12 @@
         <v>8.823333333333332</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>8.82</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
@@ -17012,14 +17172,12 @@
         <v>8.836666666666666</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>8.84</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
@@ -17053,14 +17211,12 @@
         <v>8.876666666666665</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>8.859999999999999</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
@@ -17094,14 +17250,12 @@
         <v>8.896666666666665</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>8.9</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
@@ -20492,16 +20646,18 @@
         <v>0</v>
       </c>
       <c r="I558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M558" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M558" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -20533,7 +20689,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20564,11 +20724,15 @@
         <v>0</v>
       </c>
       <c r="I560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20599,11 +20763,15 @@
         <v>0</v>
       </c>
       <c r="I561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20634,11 +20802,15 @@
         <v>0</v>
       </c>
       <c r="I562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20669,11 +20841,15 @@
         <v>0</v>
       </c>
       <c r="I563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20704,11 +20880,15 @@
         <v>0</v>
       </c>
       <c r="I564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20743,7 +20923,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20774,11 +20958,15 @@
         <v>0</v>
       </c>
       <c r="I566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20813,7 +21001,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20848,7 +21040,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20883,7 +21079,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20918,7 +21118,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20953,7 +21157,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20988,7 +21196,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21023,7 +21235,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21058,7 +21274,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21093,7 +21313,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21128,7 +21352,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21163,7 +21391,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21198,7 +21430,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21233,7 +21469,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21268,7 +21508,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21303,7 +21547,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21338,7 +21586,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21373,7 +21625,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21408,7 +21664,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +21703,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21478,7 +21742,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21513,7 +21781,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21548,7 +21820,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21583,7 +21859,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21618,7 +21898,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21653,7 +21937,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21688,7 +21976,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21723,7 +22015,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21758,7 +22054,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21793,7 +22093,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21828,7 +22132,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21863,7 +22171,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21898,7 +22210,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21933,7 +22249,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21968,7 +22288,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22003,7 +22327,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22038,7 +22366,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22073,7 +22405,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22108,7 +22444,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22143,7 +22483,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22178,7 +22522,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22213,7 +22561,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22248,7 +22600,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22283,7 +22639,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22318,7 +22678,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22353,7 +22717,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22388,7 +22756,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22423,7 +22795,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22458,7 +22834,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22493,7 +22873,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22528,7 +22912,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22563,7 +22951,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22598,7 +22990,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22633,7 +23029,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22668,7 +23068,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22703,7 +23107,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22738,7 +23146,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22773,7 +23185,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22808,7 +23224,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22843,7 +23263,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22878,7 +23302,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22913,7 +23341,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22948,7 +23380,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22983,7 +23419,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23018,7 +23458,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23053,7 +23497,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23088,7 +23536,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23123,7 +23575,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23158,7 +23614,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23193,7 +23653,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23228,7 +23692,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23263,7 +23731,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23298,7 +23770,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23333,7 +23809,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23368,7 +23848,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23403,7 +23887,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23438,7 +23926,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23473,7 +23965,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23508,7 +24004,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23543,7 +24043,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23578,7 +24082,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23613,7 +24121,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23648,7 +24160,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23683,7 +24199,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23718,7 +24238,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +24277,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23788,7 +24316,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23823,7 +24355,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23858,7 +24394,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23893,7 +24433,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23928,7 +24472,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23963,7 +24511,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23998,7 +24550,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24033,7 +24589,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24068,7 +24628,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24103,7 +24667,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24138,7 +24706,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24173,7 +24745,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24208,7 +24784,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24243,7 +24823,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24278,7 +24862,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24313,7 +24901,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24348,7 +24940,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24383,7 +24979,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24418,7 +25018,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24453,7 +25057,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24488,7 +25096,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24523,7 +25135,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24558,7 +25174,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24593,7 +25213,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24628,7 +25252,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24663,7 +25291,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24698,7 +25330,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24733,7 +25369,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24768,7 +25408,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24803,7 +25447,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24838,7 +25486,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24873,7 +25525,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24908,7 +25564,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24943,7 +25603,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24978,7 +25642,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25013,7 +25681,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25048,7 +25720,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25083,7 +25759,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25118,7 +25798,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25153,7 +25837,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25188,7 +25876,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25223,7 +25915,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25258,7 +25954,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25293,7 +25993,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25328,7 +26032,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25363,7 +26071,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25398,7 +26110,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25433,7 +26149,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25468,7 +26188,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25503,7 +26227,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25538,7 +26266,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest MIX.xlsx
+++ b/BackTest/2019-10-27 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6457,7 +6457,7 @@
         <v>12011986.14031059</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>12218347.37881059</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>13209136.92541059</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>13209136.92541059</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>13215167.33441059</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>12908626.90341059</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>12693158.19331059</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>12795191.30031059</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>12338012.74181059</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>12353996.34461059</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>12353050.83461059</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>12375099.3188106</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>12243891.80911059</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>12127491.19181059</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>10997613.96201059</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>10728750.28411059</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>10793810.44273834</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>10617069.91773834</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>10741250.46503834</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>11060729.74163834</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>10945592.67023834</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>10810633.48723834</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>10810633.48723834</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>8863159.151138339</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>8928838.14313834</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>8928806.14313834</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>8848542.127938339</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>8818106.22203834</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>9017578.555638339</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>9017578.555638339</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>8635479.64513834</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -16060,14 +16060,10 @@
         <v>823902.8200734296</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J475" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
@@ -16100,14 +16096,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16139,14 +16129,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16178,14 +16162,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16217,14 +16195,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16256,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16295,14 +16261,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16334,14 +16294,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16373,14 +16327,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16412,14 +16360,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16451,14 +16393,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16490,14 +16426,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16529,14 +16459,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16568,14 +16492,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16604,19 +16522,11 @@
         <v>-3749509.15942657</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="J489" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16648,14 +16558,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16684,15 +16588,15 @@
         <v>-3699499.15942657</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>8.93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L491" t="n">
@@ -16723,14 +16627,12 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>8.74</v>
       </c>
-      <c r="J492" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16764,14 +16666,12 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J493" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16805,14 +16705,12 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J494" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16846,14 +16744,12 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J495" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16887,14 +16783,12 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J496" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16928,14 +16822,12 @@
         <v>-3698517.81612657</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J497" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16969,14 +16861,12 @@
         <v>-3699517.81612657</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>8.73</v>
       </c>
-      <c r="J498" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17010,14 +16900,12 @@
         <v>-4013256.52262657</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J499" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17051,14 +16939,12 @@
         <v>-4004138.21232657</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>8.6</v>
       </c>
-      <c r="J500" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17092,14 +16978,12 @@
         <v>-4004138.21232657</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J501" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17133,14 +17017,12 @@
         <v>-4004138.21232657</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J502" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17174,14 +17056,12 @@
         <v>-4004138.21232657</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J503" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17215,14 +17095,12 @@
         <v>-3963034.78292657</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J504" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17256,14 +17134,12 @@
         <v>-3889908.33472657</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="J505" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17297,14 +17173,12 @@
         <v>-3889908.33472657</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>8.74</v>
       </c>
-      <c r="J506" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17338,14 +17212,12 @@
         <v>-3282912.71812657</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>8.74</v>
       </c>
-      <c r="J507" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17382,9 +17254,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17418,14 +17288,12 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>8.77</v>
       </c>
-      <c r="J509" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17462,9 +17330,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17501,9 +17367,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17537,14 +17401,10 @@
         <v>-2969178.228844197</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J512" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17578,14 +17438,10 @@
         <v>-2741874.501644197</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J513" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,9 +17478,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17661,9 +17515,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17700,9 +17552,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,9 +17589,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17778,9 +17626,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17817,9 +17663,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17856,9 +17700,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17895,9 +17737,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17934,9 +17774,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17970,14 +17808,10 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J523" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18011,14 +17845,10 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="J524" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18055,9 +17885,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18094,9 +17922,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18133,9 +17959,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18172,9 +17996,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18211,9 +18033,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18250,9 +18070,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18289,9 +18107,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18328,9 +18144,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18367,9 +18181,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18406,9 +18218,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18445,9 +18255,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18484,9 +18292,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18523,9 +18329,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18562,9 +18366,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18601,9 +18403,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18640,9 +18440,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18679,9 +18477,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18715,14 +18511,10 @@
         <v>-723562.0873441981</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J542" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18759,9 +18551,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18795,14 +18585,10 @@
         <v>-578381.9306842423</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J544" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18836,14 +18622,10 @@
         <v>-578709.9484029576</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J545" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18877,14 +18659,10 @@
         <v>-579037.9661029576</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J546" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18918,14 +18696,10 @@
         <v>-683461.1164029576</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J547" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18959,14 +18733,10 @@
         <v>-681062.2092029576</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J548" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,14 +18770,10 @@
         <v>-475279.7762029576</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J549" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19044,9 +18810,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19080,14 +18844,10 @@
         <v>-475354.1664029576</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J551" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19124,9 +18884,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19163,9 +18921,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19202,9 +18958,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19241,9 +18995,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19280,9 +19032,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19319,9 +19069,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19358,9 +19106,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19397,9 +19143,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19436,9 +19180,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19475,9 +19217,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19514,9 +19254,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19553,9 +19291,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19592,9 +19328,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,9 +19365,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19670,9 +19402,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19709,9 +19439,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19748,9 +19476,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19787,9 +19513,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19826,9 +19550,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19865,9 +19587,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19904,9 +19624,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19940,14 +19658,10 @@
         <v>-972762.4025603</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>9</v>
-      </c>
-      <c r="J573" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19984,9 +19698,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20023,9 +19735,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20062,9 +19772,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20101,9 +19809,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20140,9 +19846,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20179,9 +19883,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20218,9 +19920,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20257,9 +19957,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20293,14 +19991,10 @@
         <v>-925416.5770602999</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J582" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20337,9 +20031,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20376,9 +20068,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20415,9 +20105,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20454,9 +20142,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20493,9 +20179,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20532,9 +20216,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20571,9 +20253,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20610,9 +20290,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20649,9 +20327,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20685,14 +20361,10 @@
         <v>-969293.5803602998</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="J592" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20729,9 +20401,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20765,14 +20435,10 @@
         <v>-969293.5803602998</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="J594" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20809,9 +20475,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20848,9 +20512,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20887,9 +20549,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20926,9 +20586,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20965,9 +20623,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21004,9 +20660,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21043,9 +20697,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21082,9 +20734,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21121,9 +20771,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21160,9 +20808,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21199,9 +20845,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21238,9 +20882,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21277,9 +20919,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21316,9 +20956,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21355,9 +20993,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21394,9 +21030,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21433,9 +21067,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21472,9 +21104,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21511,9 +21141,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21550,9 +21178,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21589,9 +21215,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21628,9 +21252,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21667,9 +21289,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21706,9 +21326,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21745,9 +21363,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21784,9 +21400,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21823,9 +21437,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21862,9 +21474,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21901,9 +21511,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21940,9 +21548,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21979,9 +21585,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22015,12 +21619,10 @@
         <v>5097707.811370112</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22054,12 +21656,10 @@
         <v>5032368.107970112</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22093,12 +21693,10 @@
         <v>4629967.762670112</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22135,9 +21733,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22174,9 +21770,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22213,9 +21807,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22252,9 +21844,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22291,9 +21881,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22330,9 +21918,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22366,12 +21952,10 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22405,12 +21989,10 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22447,9 +22029,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22483,12 +22063,10 @@
         <v>5123068.50257011</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22522,12 +22100,10 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22561,12 +22137,10 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22603,9 +22177,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22642,9 +22214,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22681,9 +22251,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22720,9 +22288,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22759,9 +22325,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22798,9 +22362,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22837,9 +22399,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22876,9 +22436,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22915,9 +22473,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22954,9 +22510,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22993,9 +22547,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23032,9 +22584,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23071,9 +22621,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23110,9 +22658,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23149,9 +22695,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23188,9 +22732,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23227,9 +22769,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23266,9 +22806,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23305,9 +22843,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23344,9 +22880,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23383,9 +22917,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23422,9 +22954,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23461,9 +22991,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23500,9 +23028,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23539,9 +23065,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23578,9 +23102,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23617,9 +23139,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23656,9 +23176,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23695,9 +23213,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23734,9 +23250,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23773,9 +23287,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23812,9 +23324,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23851,9 +23361,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23890,9 +23398,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23929,9 +23435,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23968,9 +23472,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24007,9 +23509,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24046,9 +23546,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24085,9 +23583,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24124,9 +23620,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24163,9 +23657,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24202,9 +23694,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24241,9 +23731,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24280,9 +23768,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24319,9 +23805,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24358,9 +23842,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24397,9 +23879,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24436,9 +23916,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24475,9 +23953,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24514,9 +23990,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24553,9 +24027,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24592,9 +24064,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24631,9 +24101,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24670,9 +24138,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24709,9 +24175,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24748,9 +24212,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24787,9 +24249,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24826,9 +24286,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24865,9 +24323,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24904,9 +24360,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24943,9 +24397,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24982,9 +24434,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25021,9 +24471,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25060,9 +24508,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25099,9 +24545,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25138,9 +24582,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25177,9 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25216,9 +24656,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25255,9 +24693,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25294,9 +24730,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25333,9 +24767,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25372,9 +24804,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25411,9 +24841,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25450,9 +24878,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25489,9 +24915,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25528,9 +24952,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25567,9 +24989,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25606,9 +25026,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25645,9 +25063,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25684,9 +25100,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25723,9 +25137,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25762,9 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25801,9 +25211,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25840,9 +25248,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25879,9 +25285,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25918,9 +25322,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25957,9 +25359,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25996,9 +25396,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26035,9 +25433,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26074,9 +25470,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26113,9 +25507,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26152,9 +25544,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26191,9 +25581,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26230,9 +25618,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26269,9 +25655,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26308,9 +25692,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26347,9 +25729,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26386,9 +25766,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26425,9 +25803,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26464,9 +25840,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26503,9 +25877,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26542,9 +25914,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26581,9 +25951,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26620,9 +25988,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26659,9 +26025,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26698,9 +26062,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26737,9 +26099,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26776,9 +26136,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26815,9 +26173,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26854,9 +26210,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26893,9 +26247,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26932,9 +26284,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26971,9 +26321,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27010,9 +26358,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27049,9 +26395,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27088,9 +26432,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27127,9 +26469,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27166,9 +26506,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27205,9 +26543,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27244,9 +26580,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27283,9 +26617,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27322,9 +26654,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27361,9 +26691,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27400,9 +26728,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27439,9 +26765,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27478,9 +26802,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27517,9 +26839,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27556,9 +26876,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27595,9 +26913,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27634,9 +26950,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27673,9 +26987,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>8.93</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27687,6 +26999,6 @@
       <c r="M771" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest MIX.xlsx
+++ b/BackTest/2019-10-27 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>9657170.469416667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>9495110.772516666</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>10208216.03481666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>10165204.02531666</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>10160316.82531667</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>10101626.39981667</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>10554313.55861667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>10531466.48991667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>9723575.413216665</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>9710890.514916666</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>9708774.351016667</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>9712017.644316666</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>9531226.523916665</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>12338012.74181059</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>12353996.34461059</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>12353050.83461059</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>12375099.3188106</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>12243891.80911059</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>12127491.19181059</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>10997613.96201059</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>10728750.28411059</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>11060729.74163834</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>10945592.67023834</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>10810633.48723834</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>10810633.48723834</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>8863159.151138339</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>8928838.14313834</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>8928806.14313834</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>8848542.127938339</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>8818106.22203834</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>9017578.555638339</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>9017578.555638339</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>8635479.64513834</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>7987655.481916288</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>7987665.481916288</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>7728288.177016288</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>7639652.042416288</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16705,11 +16705,9 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>8.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17288,11 +17286,9 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>8.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17549,9 +17545,11 @@
         <v>-2843232.790844197</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -21249,18 +21247,16 @@
         <v>4563873.009475744</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="inlineStr"/>
     </row>
     <row r="617">
@@ -21286,15 +21282,11 @@
         <v>5121940.139475744</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21327,11 +21319,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21360,15 +21348,11 @@
         <v>6172932.631870111</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21397,15 +21381,11 @@
         <v>5320343.502170111</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21434,15 +21414,11 @@
         <v>5040343.502170111</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21475,11 +21451,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21512,11 +21484,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21549,11 +21517,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21586,11 +21550,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21623,11 +21583,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21660,11 +21616,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21693,15 +21645,11 @@
         <v>4629967.762670112</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21734,11 +21682,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21767,15 +21711,11 @@
         <v>4532013.762570111</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21804,15 +21744,11 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21841,15 +21777,11 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21878,15 +21810,11 @@
         <v>4519273.946470111</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21915,15 +21843,11 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21952,15 +21876,11 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21989,15 +21909,11 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22026,15 +21942,11 @@
         <v>4525134.809470111</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22063,15 +21975,11 @@
         <v>5123068.50257011</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22100,15 +22008,11 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22137,15 +22041,11 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22174,15 +22074,11 @@
         <v>5127788.27107011</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22211,15 +22107,11 @@
         <v>5076924.25217011</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22248,15 +22140,11 @@
         <v>4858154.12807011</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22285,15 +22173,11 @@
         <v>4853154.12807011</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22322,15 +22206,11 @@
         <v>4847154.12807011</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22359,15 +22239,11 @@
         <v>4846025.480370111</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22396,15 +22272,11 @@
         <v>4346370.539670111</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22433,15 +22305,11 @@
         <v>4425418.22357011</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22470,15 +22338,11 @@
         <v>3984712.62577011</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22511,11 +22375,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22548,11 +22408,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22585,11 +22441,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22622,11 +22474,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22659,11 +22507,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22696,11 +22540,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22733,11 +22573,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22770,11 +22606,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22807,11 +22639,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22844,11 +22672,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22881,11 +22705,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22918,11 +22738,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22955,11 +22771,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22992,11 +22804,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23029,11 +22837,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23066,11 +22870,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23103,11 +22903,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23140,11 +22936,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23177,11 +22969,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23214,11 +23002,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23251,11 +23035,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23288,11 +23068,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23325,11 +23101,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23362,11 +23134,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23399,11 +23167,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23436,11 +23200,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23473,11 +23233,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23510,11 +23266,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23547,11 +23299,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23332,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23621,11 +23365,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23658,11 +23398,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23695,11 +23431,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23732,11 +23464,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23769,11 +23497,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23806,11 +23530,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23843,11 +23563,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23880,11 +23596,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23917,11 +23629,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23954,11 +23662,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23991,11 +23695,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24028,11 +23728,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24065,11 +23761,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24102,11 +23794,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24139,11 +23827,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24176,11 +23860,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24213,11 +23893,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24250,11 +23926,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24287,11 +23959,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24324,11 +23992,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24361,11 +24025,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24398,11 +24058,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24435,11 +24091,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24472,11 +24124,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24509,11 +24157,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24546,11 +24190,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24583,11 +24223,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24620,11 +24256,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24657,11 +24289,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24694,11 +24322,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24731,11 +24355,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24768,11 +24388,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24421,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24838,15 +24450,11 @@
         <v>-785983.2063298888</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24879,11 +24487,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24916,11 +24520,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24953,11 +24553,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24990,11 +24586,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25027,11 +24619,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25064,11 +24652,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25101,11 +24685,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25138,11 +24718,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25175,11 +24751,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25212,11 +24784,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25249,11 +24817,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25286,11 +24850,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25323,11 +24883,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25360,11 +24916,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25397,11 +24949,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25434,11 +24982,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25471,11 +25015,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25508,11 +25048,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25545,11 +25081,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25582,11 +25114,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25619,11 +25147,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25656,11 +25180,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25693,11 +25213,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25730,11 +25246,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25767,11 +25279,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25804,11 +25312,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25841,11 +25345,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25878,11 +25378,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25915,11 +25411,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25952,11 +25444,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25989,11 +25477,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26026,11 +25510,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26063,11 +25543,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26100,11 +25576,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26137,11 +25609,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26174,11 +25642,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26211,11 +25675,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26248,11 +25708,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26285,11 +25741,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26322,11 +25774,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26359,11 +25807,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26396,11 +25840,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26433,11 +25873,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26470,11 +25906,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26507,11 +25939,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26544,11 +25972,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26581,11 +26005,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26618,11 +26038,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26655,11 +26071,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26692,11 +26104,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26725,15 +26133,15 @@
         <v>-5439775.572314905</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>9</v>
+      </c>
+      <c r="J764" t="n">
+        <v>9</v>
+      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26765,10 +26173,12 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>9</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L765" t="n">
@@ -26799,13 +26209,17 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>9</v>
+      </c>
+      <c r="J766" t="n">
+        <v>9</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L766" t="n">
@@ -26836,10 +26250,14 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J767" t="n">
+        <v>9</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26873,10 +26291,14 @@
         <v>-7236383.787214906</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J768" t="n">
+        <v>9</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26910,10 +26332,14 @@
         <v>-7196373.787214906</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J769" t="n">
+        <v>9</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26947,10 +26373,14 @@
         <v>-7327137.394214906</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J770" t="n">
+        <v>9</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26984,10 +26414,14 @@
         <v>-7576055.877114906</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J771" t="n">
+        <v>9</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26999,6 +26433,6 @@
       <c r="M771" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest MIX.xlsx
+++ b/BackTest/2019-10-27 BackTest MIX.xlsx
@@ -1276,7 +1276,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>9243117.222316667</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>9657170.469416667</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>9495110.772516666</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>10208216.03481666</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>10165204.02531666</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>10165326.68431666</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>10160316.82531667</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>10101626.39981667</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>10554313.55861667</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>10531466.48991667</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>9723575.413216665</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>9710890.514916666</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>9708774.351016667</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>9712017.644316666</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>9531226.523916665</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>13215167.33441059</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>12908626.90341059</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>12693158.19331059</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>12799959.62321059</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>12795191.30031059</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>12923542.74951059</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>12470657.96691059</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>12492791.67591059</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>12486791.67591059</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>12410464.62941059</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>12416986.06641059</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>12345647.44181059</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>12406416.96381059</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>12338012.74181059</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>12353996.34461059</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>12353050.83461059</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>12375099.3188106</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>12243891.80911059</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>12127491.19181059</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>10997613.96201059</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>10728750.28411059</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>10794051.83673834</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>10793810.44273834</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>10796813.37513834</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>10796923.34243834</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>10796923.34243834</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>11058278.34033834</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>11054866.91293834</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>10993215.48013834</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>7987655.481916288</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>7987665.481916288</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>7728288.177016288</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>7639652.042416288</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16588,17 +16588,11 @@
         <v>-3699499.15942657</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>8.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16627,17 +16621,11 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>8.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16666,17 +16654,11 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>8.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16709,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16742,17 +16720,11 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>8.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16781,17 +16753,11 @@
         <v>-3700589.59562657</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>8.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16820,17 +16786,11 @@
         <v>-3698517.81612657</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>8.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16864,12 +16824,10 @@
       <c r="I498" t="n">
         <v>8.73</v>
       </c>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16903,10 +16861,12 @@
       <c r="I499" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L499" t="n">
@@ -16942,7 +16902,9 @@
       <c r="I500" t="n">
         <v>8.6</v>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16981,7 +16943,9 @@
       <c r="I501" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17020,7 +16984,9 @@
       <c r="I502" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17059,7 +17025,9 @@
       <c r="I503" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17098,7 +17066,9 @@
       <c r="I504" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17137,7 +17107,9 @@
       <c r="I505" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17176,7 +17148,9 @@
       <c r="I506" t="n">
         <v>8.74</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17215,7 +17189,9 @@
       <c r="I507" t="n">
         <v>8.74</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17249,10 +17225,14 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="J508" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17286,10 +17266,14 @@
         <v>-3443882.06982657</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J509" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17323,10 +17307,14 @@
         <v>-3094829.94482657</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J510" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17360,10 +17348,14 @@
         <v>-2805033.281244197</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J511" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17397,10 +17389,14 @@
         <v>-2969178.228844197</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J512" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17434,10 +17430,14 @@
         <v>-2741874.501644197</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J513" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17471,10 +17471,14 @@
         <v>-2967137.237344197</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="J514" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,10 +17512,14 @@
         <v>-2967137.237344197</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J515" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17550,7 +17558,9 @@
       <c r="I516" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17584,10 +17594,14 @@
         <v>-2843232.790844197</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J517" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17621,10 +17635,14 @@
         <v>-2843222.790844197</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J518" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17658,10 +17676,14 @@
         <v>-2843222.790844197</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J519" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17695,10 +17717,14 @@
         <v>-2843222.790844197</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J520" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17732,10 +17758,14 @@
         <v>-2852686.774844198</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J521" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17769,10 +17799,14 @@
         <v>-2853209.136644198</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J522" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17806,10 +17840,14 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J523" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17843,10 +17881,14 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J524" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17880,10 +17922,14 @@
         <v>-2853152.744644198</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J525" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17917,10 +17963,14 @@
         <v>-2848939.744644198</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J526" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17954,10 +18004,14 @@
         <v>-2380600.214344198</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J527" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17991,10 +18045,14 @@
         <v>-1887024.773044198</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="J528" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18028,10 +18086,14 @@
         <v>-1819397.477644198</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J529" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18065,10 +18127,14 @@
         <v>-1839089.938244198</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="J530" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18102,10 +18168,14 @@
         <v>-1839101.938244198</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J531" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18139,10 +18209,14 @@
         <v>-1722129.664344198</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J532" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18176,10 +18250,14 @@
         <v>-1077265.152844198</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J533" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18213,10 +18291,14 @@
         <v>-175531.797944198</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="J534" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18250,10 +18332,14 @@
         <v>-146053.570644198</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J535" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18287,10 +18373,14 @@
         <v>-164303.792844198</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>9</v>
+      </c>
+      <c r="J536" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18324,10 +18414,14 @@
         <v>-164303.792844198</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J537" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18361,10 +18455,14 @@
         <v>-166484.792844198</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J538" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18398,10 +18496,14 @@
         <v>-9584.792844198004</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J539" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18435,10 +18537,14 @@
         <v>368944.858255802</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="J540" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18472,10 +18578,14 @@
         <v>-760942.4118441981</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J541" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18509,10 +18619,14 @@
         <v>-723562.0873441981</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J542" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18546,10 +18660,14 @@
         <v>-683042.1255441981</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>9</v>
+      </c>
+      <c r="J543" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18583,10 +18701,14 @@
         <v>-578381.9306842423</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J544" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18620,10 +18742,14 @@
         <v>-578709.9484029576</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="J545" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18657,10 +18783,14 @@
         <v>-579037.9661029576</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J546" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18694,10 +18824,14 @@
         <v>-683461.1164029576</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J547" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18731,10 +18865,14 @@
         <v>-681062.2092029576</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="J548" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18768,10 +18906,14 @@
         <v>-475279.7762029576</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J549" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18805,10 +18947,14 @@
         <v>-475279.7762029576</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="J550" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18842,10 +18988,14 @@
         <v>-475354.1664029576</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="J551" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18879,10 +19029,14 @@
         <v>-401586.2199816288</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J552" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18916,10 +19070,14 @@
         <v>-377087.6770816288</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="J553" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18956,7 +19114,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18993,7 +19153,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19030,7 +19192,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19067,7 +19231,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19104,7 +19270,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19141,7 +19309,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19178,7 +19348,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19215,7 +19387,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19252,7 +19426,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19289,7 +19465,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19326,7 +19504,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19363,7 +19543,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19400,7 +19582,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19437,7 +19621,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19474,7 +19660,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19511,7 +19699,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19548,7 +19738,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19585,7 +19777,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19622,7 +19816,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19659,7 +19855,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19696,7 +19894,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19733,7 +19933,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19770,7 +19972,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19807,7 +20011,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19844,7 +20050,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19881,7 +20089,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19918,7 +20128,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19955,7 +20167,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19992,7 +20206,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20029,7 +20245,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20066,7 +20284,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20103,7 +20323,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20140,7 +20362,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20177,7 +20401,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20214,7 +20440,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20251,7 +20479,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20288,7 +20518,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20325,7 +20557,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20362,7 +20596,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20399,7 +20635,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20436,7 +20674,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20473,7 +20713,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20510,7 +20752,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20547,7 +20791,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20584,7 +20830,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20621,7 +20869,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20658,7 +20908,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20695,7 +20947,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20732,7 +20986,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20769,7 +21025,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20806,7 +21064,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20843,7 +21103,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20880,7 +21142,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20917,7 +21181,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20954,7 +21220,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20991,7 +21259,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,7 +21298,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21065,7 +21337,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21102,7 +21376,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21139,7 +21415,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21176,7 +21454,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21213,7 +21493,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21247,16 +21529,20 @@
         <v>4563873.009475744</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>8.73</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L616" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
       <c r="M616" t="inlineStr"/>
     </row>
     <row r="617">
@@ -21282,11 +21568,17 @@
         <v>5121940.139475744</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21318,8 +21610,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21348,11 +21646,17 @@
         <v>6172932.631870111</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21381,11 +21685,17 @@
         <v>5320343.502170111</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21414,11 +21724,17 @@
         <v>5040343.502170111</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21450,8 +21766,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21483,8 +21805,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21516,8 +21844,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21549,8 +21883,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21582,8 +21922,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21615,8 +21961,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21645,11 +21997,17 @@
         <v>4629967.762670112</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21681,8 +22039,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21711,11 +22075,17 @@
         <v>4532013.762570111</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21744,11 +22114,17 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21777,11 +22153,17 @@
         <v>4316966.491870111</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21810,11 +22192,17 @@
         <v>4519273.946470111</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21843,11 +22231,17 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21876,11 +22270,17 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21909,11 +22309,17 @@
         <v>4453166.669070111</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21942,11 +22348,17 @@
         <v>4525134.809470111</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21975,11 +22387,17 @@
         <v>5123068.50257011</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22008,11 +22426,17 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22041,11 +22465,17 @@
         <v>5080390.16567011</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22074,11 +22504,17 @@
         <v>5127788.27107011</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22107,11 +22543,17 @@
         <v>5076924.25217011</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22140,11 +22582,17 @@
         <v>4858154.12807011</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22173,11 +22621,17 @@
         <v>4853154.12807011</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22206,11 +22660,17 @@
         <v>4847154.12807011</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22239,11 +22699,17 @@
         <v>4846025.480370111</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22272,11 +22738,17 @@
         <v>4346370.539670111</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22305,11 +22777,17 @@
         <v>4425418.22357011</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22338,11 +22816,17 @@
         <v>3984712.62577011</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22374,8 +22858,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22407,8 +22897,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22440,8 +22936,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22473,8 +22975,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22506,8 +23014,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22539,8 +23053,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22572,8 +23092,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22605,8 +23131,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22638,8 +23170,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22671,8 +23209,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22704,8 +23248,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22737,8 +23287,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22770,8 +23326,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22803,8 +23365,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22836,8 +23404,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22869,8 +23443,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22902,8 +23482,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22935,8 +23521,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22968,8 +23560,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23001,8 +23599,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23034,8 +23638,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23067,8 +23677,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23100,8 +23716,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23133,8 +23755,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23166,8 +23794,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23199,8 +23833,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23232,8 +23872,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23265,8 +23911,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23298,8 +23950,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23331,8 +23989,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23364,8 +24028,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23397,8 +24067,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23430,8 +24106,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23463,8 +24145,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23496,8 +24184,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23529,8 +24223,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23562,8 +24262,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23595,8 +24301,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23628,8 +24340,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23661,8 +24379,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23694,8 +24418,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23727,8 +24457,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23760,8 +24496,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23793,8 +24535,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23826,8 +24574,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23859,8 +24613,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23892,8 +24652,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23925,8 +24691,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23958,8 +24730,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23991,8 +24769,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24024,8 +24808,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24057,8 +24847,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24090,8 +24886,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24123,8 +24925,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24156,8 +24964,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24189,8 +25003,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24222,8 +25042,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24255,8 +25081,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24288,8 +25120,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24321,8 +25159,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24354,8 +25198,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24387,8 +25237,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24420,8 +25276,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24450,11 +25312,17 @@
         <v>-785983.2063298888</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24486,8 +25354,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24519,8 +25393,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24552,8 +25432,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24585,8 +25471,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24618,8 +25510,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24651,8 +25549,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24684,8 +25588,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24717,8 +25627,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24750,8 +25666,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24783,8 +25705,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24816,8 +25744,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24849,8 +25783,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24882,8 +25822,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24915,8 +25861,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24948,8 +25900,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24981,8 +25939,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25014,8 +25978,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25047,8 +26017,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25080,8 +26056,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25113,8 +26095,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25146,8 +26134,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25179,8 +26173,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25212,8 +26212,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25245,8 +26251,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25278,8 +26290,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25311,8 +26329,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25344,8 +26368,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25377,8 +26407,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25410,8 +26446,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25443,8 +26485,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25476,8 +26524,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25509,8 +26563,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25542,8 +26602,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25575,8 +26641,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25608,8 +26680,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25641,8 +26719,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25674,8 +26758,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25707,8 +26797,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25740,8 +26836,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25773,8 +26875,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25806,8 +26914,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25839,8 +26953,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25872,8 +26992,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25905,8 +27031,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25938,8 +27070,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25971,8 +27109,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26004,8 +27148,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26037,8 +27187,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26070,8 +27226,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26103,8 +27265,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26133,15 +27301,17 @@
         <v>-5439775.572314905</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>9</v>
-      </c>
-      <c r="K764" t="inlineStr"/>
+        <v>8.73</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26174,11 +27344,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>9</v>
+        <v>8.73</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L765" t="n">
@@ -26209,17 +27379,15 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>9</v>
+        <v>8.73</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L766" t="n">
@@ -26250,13 +27418,11 @@
         <v>-6649211.596114906</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>8.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>9</v>
+        <v>8.73</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26291,13 +27457,11 @@
         <v>-7236383.787214906</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>8.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>9</v>
+        <v>8.73</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26332,13 +27496,11 @@
         <v>-7196373.787214906</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>8.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>9</v>
+        <v>8.73</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26373,13 +27535,11 @@
         <v>-7327137.394214906</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="n">
-        <v>9</v>
+        <v>8.73</v>
       </c>
       <c r="K770" t="inlineStr">
         <is>
@@ -26414,13 +27574,11 @@
         <v>-7576055.877114906</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>8.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="n">
-        <v>9</v>
+        <v>8.73</v>
       </c>
       <c r="K771" t="inlineStr">
         <is>
